--- a/src/main/resources/historical date template.xlsx
+++ b/src/main/resources/historical date template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="15">
   <si>
     <r>
       <t>Sec Type</t>
@@ -174,12 +174,42 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Ticker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="6" bestFit="1" customWidth="1"/>
@@ -580,9 +610,10 @@
     <col min="5" max="5" width="23.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -613,8 +644,14 @@
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -632,7 +669,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -650,7 +687,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -668,7 +705,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -686,7 +723,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -704,7 +741,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -722,7 +759,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -740,7 +777,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -758,7 +795,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -776,7 +813,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -794,7 +831,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -812,7 +849,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -830,7 +867,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -848,7 +885,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -866,7 +903,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -884,7 +921,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -902,7 +939,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -920,7 +957,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -938,7 +975,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -956,7 +993,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -974,7 +1011,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1029,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1047,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1065,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1083,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1101,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1119,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1137,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1155,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -1136,7 +1173,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1191,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1209,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1227,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1245,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1263,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1281,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1299,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1317,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1335,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1353,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1371,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1389,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1407,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1425,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1443,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1461,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1479,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1497,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1515,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1533,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1551,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,7 +1595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
